--- a/AD_Group_Comparison.xlsx
+++ b/AD_Group_Comparison.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzxvand\Documents\GitHub\active-directory-group-comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3360375C-DA2E-4D38-89E3-A01860A5B815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E501AB-902E-408F-BC4E-5AEEEE140E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Comparison Results" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>AD Group 1</t>
   </si>
@@ -42,35 +41,13 @@
   </si>
   <si>
     <t>GrpGWGCC_LOG_Admins</t>
-  </si>
-  <si>
-    <t>Comparison Results</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>No users found in both groups.</t>
-  </si>
-  <si>
-    <t>2024-06-14 09:58:36</t>
-  </si>
-  <si>
-    <t>Vandersloot, Shayne (gzxvand) (gzxvand); Saravanan, Jayakumar (g2l1sar) (g2l1sar); Chi, Daniel (gfochi) (gfochi); Munaganuri, Hareesh Kumar (gc0xmun) (gc0xmun)</t>
-  </si>
-  <si>
-    <t>Vandersloot, Shayne (gzxvand) (gzxvand); Shamsudeen, Shameer (g1pzsha) (g1pzsha); Chi, Daniel (gfochi) (gfochi); Sutari, Sanjay (gk5osut) (gk5osut)</t>
-  </si>
-  <si>
-    <t>Domeika, Sabra (gszdome); Ethiraj, Jeyasekaran (ebcethi); Ramu, Pranesh Kumar (gzuramu); Pruitt, Amber (gkbuwie) (gkbuwie); Vandersloot, Shayne (gzxvand) (gzxvand); Shamsudeen, Shameer (g1pzsha) (g1pzsha); Ramachandran, Hemanathan (g2gyram) (g2gyram); Ramalingam, Karthikeyan (e0hrama) (e0hrama); Kushwaha, Jitendra (g2mzkus) (g2mzkus); Mahammad, Ibrahim (g2p2mah) (g2p2mah); Chi, Daniel (gfochi) (gfochi); Natarajan, Manikandaraam (gcanata) (gcanata); Satapathy, Gyana Ranjan (gai1sat) (gai1sat); Kumar, Vidyuth (g2qkuma) (g2qkuma); Munaganuri, Hareesh Kumar (gc0xmun) (gc0xmun)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +100,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -439,10 +416,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" bestFit="1" width="26" customWidth="1"/>
+    <col min="1" max="2" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,138 +427,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
 </worksheet>
 </file>
 

--- a/AD_Group_Comparison.xlsx
+++ b/AD_Group_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzxvand\Documents\GitHub\active-directory-group-comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E501AB-902E-408F-BC4E-5AEEEE140E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE7DF5E-0465-4293-BEDA-2DD896538544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/AD_Group_Comparison.xlsx
+++ b/AD_Group_Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzxvand\Documents\GitHub\active-directory-group-comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE7DF5E-0465-4293-BEDA-2DD896538544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8687A4-0FFD-4C7B-A74D-8B0A33A4B1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>AD Group 1</t>
   </si>
@@ -28,19 +28,10 @@
     <t>AD Group 2</t>
   </si>
   <si>
-    <t>GrpGIT_Mobilitas_Write</t>
+    <t>GrpGWGCC_LOG_Admins</t>
   </si>
   <si>
-    <t>GrpGWGCC_SM_Prod_Admins</t>
-  </si>
-  <si>
-    <t>GrpGWGCC_SM_Admins</t>
-  </si>
-  <si>
-    <t>GrpGWGCC_SCM_Users</t>
-  </si>
-  <si>
-    <t>GrpGWGCC_LOG_Admins</t>
+    <t>GrpGWGCC_LOG_Users</t>
   </si>
 </sst>
 </file>
@@ -408,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,30 +426,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AD_Group_Comparison.xlsx
+++ b/AD_Group_Comparison.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzxvand\Documents\GitHub\active-directory-group-comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8687A4-0FFD-4C7B-A74D-8B0A33A4B1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED55C00-9B60-4A90-8F13-E2C77E9B537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparison Results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>AD Group 1</t>
   </si>
@@ -32,6 +33,21 @@
   </si>
   <si>
     <t>GrpGWGCC_LOG_Users</t>
+  </si>
+  <si>
+    <t>Comparison Results</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Ramachandran, Hemanathan (g2gyram) (g2gyram); Ramalingam, Karthikeyan (e0hrama) (e0hrama)</t>
+  </si>
+  <si>
+    <t>2024-09-24 13:54:04</t>
+  </si>
+  <si>
+    <t>2024-09-24 14:02:15</t>
   </si>
 </sst>
 </file>
@@ -401,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -431,6 +447,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{2d48d056-9dcf-480d-be28-f64a2de71bca}" enabled="1" method="Standard" siteId="{1345b410-9694-46f3-9c42-132a582646b5}" contentBits="0" removed="0"/>
